--- a/AccountPackage1.xlsx
+++ b/AccountPackage1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus18.TRANSITUS18-PC\Documents\test\ManasProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72940343-0D61-48CC-BAD0-6EA1A30BC98B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD0F8FD-C7AA-40CF-899A-149079DEF5F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="60">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -579,7 +579,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,6 +1085,9 @@
       <c r="H32" t="s">
         <v>56</v>
       </c>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
